--- a/dog_fee.xlsx
+++ b/dog_fee.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18100" windowHeight="12540" firstSheet="6" activeTab="8"/>
+    <workbookView windowWidth="18100" windowHeight="12540" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="funeral" sheetId="1" r:id="rId1"/>
@@ -3447,14 +3447,16 @@
   <sheetPr/>
   <dimension ref="A1:AH40"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="2" max="2" width="10.5"/>
+    <col min="19" max="19" width="10.5"/>
     <col min="21" max="21" width="10.5"/>
+    <col min="25" max="25" width="10.5"/>
     <col min="31" max="35" width="9.5"/>
   </cols>
   <sheetData>
@@ -3615,7 +3617,7 @@
         <v>2107.568</v>
       </c>
       <c r="Y2">
-        <f t="shared" si="0"/>
+        <f>SUM(M20,S20)</f>
         <v>2707.9673</v>
       </c>
     </row>
@@ -3785,7 +3787,7 @@
         <v>4.5194</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:25">
       <c r="A5" t="s">
         <v>173</v>
       </c>
@@ -3846,6 +3848,26 @@
       <c r="S5" cm="1">
         <f t="array" ref="S5">SUMPRODUCT($B25:$Z25,$B$40:$Z$40)*G5</f>
         <v>209.15</v>
+      </c>
+      <c r="U5">
+        <f t="shared" ref="U5:Y5" si="8">U2-U3-U4</f>
+        <v>320.9989</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="8"/>
+        <v>993.319</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="8"/>
+        <v>1519.749</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="8"/>
+        <v>2085.786</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="8"/>
+        <v>2699.2545</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -4736,39 +4758,39 @@
         <v>397.1</v>
       </c>
       <c r="J20" s="3">
-        <f t="shared" ref="J20:S20" si="8">SUM(J2:J19)</f>
+        <f t="shared" ref="J20:S20" si="9">SUM(J2:J19)</f>
         <v>342.7</v>
       </c>
       <c r="K20" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>475.8</v>
       </c>
       <c r="L20" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>656.4</v>
       </c>
       <c r="M20" s="3">
-        <f t="shared" si="8"/>
+        <f>SUM(M2:M19)</f>
         <v>852.2</v>
       </c>
       <c r="O20" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2102.0989</v>
       </c>
       <c r="P20" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>868.439</v>
       </c>
       <c r="Q20" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1087.513</v>
       </c>
       <c r="R20" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1451.168</v>
       </c>
       <c r="S20" s="3">
-        <f t="shared" si="8"/>
+        <f>SUM(S2:S19)</f>
         <v>1855.7673</v>
       </c>
     </row>
@@ -6377,7 +6399,7 @@
   <sheetPr/>
   <dimension ref="A1:Z40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="Y4" sqref="Y4"/>
     </sheetView>
   </sheetViews>
